--- a/ArticleManage/main_working_folder/output_folders/Data 10 Influence of thermal treatment/Data10_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 10 Influence of thermal treatment/Data10_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 F300F850  0-1-0-1.8 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 F850  0-1-0-1.8 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 L275F850  0-1-0-1.8 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 L285F850  0-1-0-1.8 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4 L300F850  0-1-0-1.8 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4 L400F850  0-1-0-1.8 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 4 L850  0-1-0-1.8 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 F850  0&amp;1&amp;0&amp;1.8 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4 L850  0&amp;1&amp;0&amp;1.8 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 F300F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 F300F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L275F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L275F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L285F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L285F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L300F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L300F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L400F850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L400F850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L850  0-1-0-1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L850  0-1-0-1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 10 Influence of thermal treatment/Data10_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 10 Influence of thermal treatment/Data10_all_graphs_excel.xlsx
@@ -5,20 +5,27 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 F850  0&amp;1&amp;0&amp;1.8 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 4 L850  0&amp;1&amp;0&amp;1.8 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4 F300F850  0&amp;1&amp;0&amp;1.6 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 F850  0&amp;1&amp;0&amp;1.6 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 L275F850  0&amp;1&amp;0&amp;1.6 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 L285F850  0&amp;1&amp;0&amp;1.6 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 L300F850  0&amp;1&amp;0&amp;1.6 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4 L400F850  0&amp;1&amp;0&amp;1.6 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4 L850  0&amp;1&amp;0&amp;1.6 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5 F300F850A4.7  0&amp;1&amp;0&amp;16" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5 F850A4  0&amp;1&amp;0&amp;16 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 5 L275F850A3.2  0&amp;1&amp;0&amp;16" sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 5 L285F850A3.7  0&amp;1&amp;0&amp;16" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 5 L300F850A4.2  0&amp;1&amp;0&amp;16" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 5 L400F850A4  0&amp;1&amp;0&amp;16 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 5 L850A4  0&amp;1&amp;0&amp;16 " sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>F300F850</t>
   </si>
@@ -45,6 +52,27 @@
   </si>
   <si>
     <t>L850</t>
+  </si>
+  <si>
+    <t>F300F850A4.7</t>
+  </si>
+  <si>
+    <t>F850A4</t>
+  </si>
+  <si>
+    <t>L275F850A3.2</t>
+  </si>
+  <si>
+    <t>L285F850A3.7</t>
+  </si>
+  <si>
+    <t>L300F850A4.2</t>
+  </si>
+  <si>
+    <t>L400F850A4</t>
+  </si>
+  <si>
+    <t>L850A4</t>
   </si>
 </sst>
 </file>
@@ -180,12 +208,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 F300F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -269,7 +297,1577 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki L275F850A3.2 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 L275F850A3.2  0&amp;1&amp;0&amp;16'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 L275F850A3.2  0&amp;1&amp;0&amp;16'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki L285F850A3.7 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 L285F850A3.7  0&amp;1&amp;0&amp;16'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 L285F850A3.7  0&amp;1&amp;0&amp;16'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki L300F850A4.2 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 L300F850A4.2  0&amp;1&amp;0&amp;16'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 L300F850A4.2  0&amp;1&amp;0&amp;16'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki L400F850A4 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 L400F850A4  0&amp;1&amp;0&amp;16 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 L400F850A4  0&amp;1&amp;0&amp;16 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki L850A4 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 L850A4  0&amp;1&amp;0&amp;16 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 L850A4  0&amp;1&amp;0&amp;16 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -494,12 +2092,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -583,7 +2181,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -808,12 +2406,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L275F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -897,7 +2495,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1122,12 +2720,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L285F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1211,7 +2809,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1436,12 +3034,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L300F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1525,7 +3123,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1750,12 +3348,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L400F850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1839,7 +3437,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2064,12 +3662,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.8 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.8 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 L850  0&amp;1&amp;0&amp;1.6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2153,7 +3751,635 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7999999523162842"/>
+          <c:max val="1.600000023841858"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki F300F850A4.7 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 F300F850A4.7  0&amp;1&amp;0&amp;16'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 F300F850A4.7  0&amp;1&amp;0&amp;16'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki F850A4 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 F850A4  0&amp;1&amp;0&amp;16 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 F850A4  0&amp;1&amp;0&amp;16 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2287,6 +4513,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2566,6 +4992,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3087,7 +5593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3608,7 +6114,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4129,7 +6635,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4650,7 +7156,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5171,7 +7677,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5692,7 +8198,3654 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6231,6 +12384,181 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6458,6 +12786,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6755,6 +13153,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0057</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.2177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0205</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.2542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.035</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.2942</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0505</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0762</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.3762</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1011</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.4103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1507</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.4453</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1994</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.249</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.5072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2994</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.5204</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3999</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.5662</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4985</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.5972</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5976</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.6258</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6985</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.6338</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7994</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.6636</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.9011</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.6911</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.9503</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.7284</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9948</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.8746</v>
+      </c>
+    </row>
+    <row r="22"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9882</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.2242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9009</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12.8985</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8018</v>
+      </c>
+      <c r="B5" s="0">
+        <v>12.782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7001</v>
+      </c>
+      <c r="B6" s="0">
+        <v>12.6657</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B7" s="0">
+        <v>12.5791</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5019</v>
+      </c>
+      <c r="B8" s="0">
+        <v>12.4825</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4011</v>
+      </c>
+      <c r="B9" s="0">
+        <v>12.3462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3016</v>
+      </c>
+      <c r="B10" s="0">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2008</v>
+      </c>
+      <c r="B11" s="0">
+        <v>12.004</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1521</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11.8661</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1021</v>
+      </c>
+      <c r="B13" s="0">
+        <v>11.6984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.083</v>
+      </c>
+      <c r="B14" s="0">
+        <v>11.5896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0613</v>
+      </c>
+      <c r="B15" s="0">
+        <v>11.441</v>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9882</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.3536</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9001</v>
+      </c>
+      <c r="B4" s="0">
+        <v>13.0478</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.7989</v>
+      </c>
+      <c r="B5" s="0">
+        <v>12.9314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7002</v>
+      </c>
+      <c r="B6" s="0">
+        <v>12.8647</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B7" s="0">
+        <v>12.7881</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5007</v>
+      </c>
+      <c r="B8" s="0">
+        <v>12.6816</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4003</v>
+      </c>
+      <c r="B9" s="0">
+        <v>12.5353</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3004</v>
+      </c>
+      <c r="B10" s="0">
+        <v>12.3791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2008</v>
+      </c>
+      <c r="B11" s="0">
+        <v>12.1632</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1508</v>
+      </c>
+      <c r="B12" s="0">
+        <v>12.0651</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="0">
+        <v>11.8975</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0813</v>
+      </c>
+      <c r="B14" s="0">
+        <v>11.7389</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0618</v>
+      </c>
+      <c r="B15" s="0">
+        <v>11.6101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.047</v>
+      </c>
+      <c r="B16" s="0">
+        <v>11.4911</v>
+      </c>
+    </row>
+    <row r="17"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.989</v>
+      </c>
+      <c r="B3" s="0">
+        <v>12.9456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9008</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12.6497</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8013</v>
+      </c>
+      <c r="B5" s="0">
+        <v>12.5233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7013</v>
+      </c>
+      <c r="B6" s="0">
+        <v>12.4467</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6014</v>
+      </c>
+      <c r="B7" s="0">
+        <v>12.3204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5006</v>
+      </c>
+      <c r="B8" s="0">
+        <v>12.2338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4006</v>
+      </c>
+      <c r="B9" s="0">
+        <v>12.0776</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3007</v>
+      </c>
+      <c r="B10" s="0">
+        <v>11.9114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2016</v>
+      </c>
+      <c r="B11" s="0">
+        <v>11.7253</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.152</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11.5875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.102</v>
+      </c>
+      <c r="B13" s="0">
+        <v>11.4198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0803</v>
+      </c>
+      <c r="B14" s="0">
+        <v>11.311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0608</v>
+      </c>
+      <c r="B15" s="0">
+        <v>11.2221</v>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.988</v>
+      </c>
+      <c r="B3" s="0">
+        <v>12.5377</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.8998</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12.2219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8012</v>
+      </c>
+      <c r="B5" s="0">
+        <v>12.1253</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7012</v>
+      </c>
+      <c r="B6" s="0">
+        <v>12.0288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>11.9323</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5005</v>
+      </c>
+      <c r="B8" s="0">
+        <v>11.8458</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3997</v>
+      </c>
+      <c r="B9" s="0">
+        <v>11.7095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2993</v>
+      </c>
+      <c r="B10" s="0">
+        <v>11.5632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2015</v>
+      </c>
+      <c r="B11" s="0">
+        <v>11.387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11.2592</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1019</v>
+      </c>
+      <c r="B13" s="0">
+        <v>11.1114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0803</v>
+      </c>
+      <c r="B14" s="0">
+        <v>11.0324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0625</v>
+      </c>
+      <c r="B15" s="0">
+        <v>10.9235</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0451</v>
+      </c>
+      <c r="B16" s="0">
+        <v>10.8046</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.034</v>
+      </c>
+      <c r="B17" s="0">
+        <v>10.6756</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0263</v>
+      </c>
+      <c r="B18" s="0">
+        <v>10.5166</v>
+      </c>
+    </row>
+    <row r="19"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6763,7 +13901,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -6776,146 +13914,146 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9963</v>
+        <v>0.9899</v>
       </c>
       <c r="B3" s="0">
-        <v>0.8737</v>
+        <v>13.3535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9506</v>
+        <v>0.9027</v>
       </c>
       <c r="B4" s="0">
-        <v>0.732</v>
+        <v>13.2566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9027</v>
+        <v>0.8019</v>
       </c>
       <c r="B5" s="0">
-        <v>0.689</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8007</v>
+        <v>0.6998</v>
       </c>
       <c r="B6" s="0">
-        <v>0.665</v>
+        <v>13.0935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7005</v>
+        <v>0.5999</v>
       </c>
       <c r="B7" s="0">
-        <v>0.6317</v>
+        <v>13.007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5986</v>
+        <v>0.5025</v>
       </c>
       <c r="B8" s="0">
-        <v>0.6283</v>
+        <v>12.9004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.5001</v>
+        <v>0.4013</v>
       </c>
       <c r="B9" s="0">
-        <v>0.595</v>
+        <v>12.7641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3999</v>
+        <v>0.303</v>
       </c>
       <c r="B10" s="0">
-        <v>0.5687</v>
+        <v>12.6377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2997</v>
+        <v>0.2513</v>
       </c>
       <c r="B11" s="0">
-        <v>0.5217</v>
+        <v>12.5398</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2491</v>
+        <v>0.2013</v>
       </c>
       <c r="B12" s="0">
-        <v>0.5108</v>
+        <v>12.4517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1994</v>
+        <v>0.1522</v>
       </c>
       <c r="B13" s="0">
-        <v>0.4769</v>
+        <v>12.3139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1506</v>
+        <v>0.1009</v>
       </c>
       <c r="B14" s="0">
-        <v>0.4477</v>
+        <v>12.1363</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1008</v>
+        <v>0.0827</v>
       </c>
       <c r="B15" s="0">
-        <v>0.4093</v>
+        <v>12.0274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0764</v>
+        <v>0.0695</v>
       </c>
       <c r="B16" s="0">
-        <v>0.3752</v>
+        <v>11.9681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0492</v>
+        <v>0.0517</v>
       </c>
       <c r="B17" s="0">
-        <v>0.3571</v>
+        <v>11.8592</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0337</v>
+        <v>0.0364</v>
       </c>
       <c r="B18" s="0">
-        <v>0.2977</v>
+        <v>11.6507</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0182</v>
+        <v>0.0258</v>
       </c>
       <c r="B19" s="0">
-        <v>0.2566</v>
+        <v>11.442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0108</v>
+        <v>0.0095</v>
       </c>
       <c r="B20" s="0">
-        <v>0.2131</v>
+        <v>10.9052</v>
       </c>
     </row>
     <row r="21"/>
@@ -6948,18 +14086,18 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9028</v>
+        <v>0.9016</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0424</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8018</v>
+        <v>0.803</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0321</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="5">
@@ -6967,20 +14105,20 @@
         <v>0.6999</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6007</v>
+        <v>0.6005</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0275</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4997</v>
+        <v>0.5005</v>
       </c>
       <c r="B7" s="0">
         <v>0.0287</v>
@@ -6988,18 +14126,18 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4014</v>
+        <v>0.402</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0321</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3022</v>
+        <v>0.3025</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0378</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="10">
@@ -7007,20 +14145,20 @@
         <v>0.2517</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0361</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2021</v>
+        <v>0.2026</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0367</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1525</v>
+        <v>0.1536</v>
       </c>
       <c r="B12" s="0">
         <v>0.0349</v>
@@ -7028,58 +14166,58 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.102</v>
+        <v>0.1027</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0355</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0822</v>
+        <v>0.0838</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0312</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0714</v>
+        <v>0.073</v>
       </c>
       <c r="B15" s="0">
-        <v>0.029</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0632</v>
+        <v>0.0631</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0245</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0515</v>
+        <v>0.0523</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0178</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.037</v>
+        <v>0.0374</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0156</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0244</v>
+        <v>0.0257</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0135</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20"/>
@@ -7112,50 +14250,50 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9523</v>
+        <v>0.9511</v>
       </c>
       <c r="B3" s="0">
-        <v>0.6953</v>
+        <v>0.6928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8998</v>
+        <v>0.8988</v>
       </c>
       <c r="B4" s="0">
-        <v>0.6524</v>
+        <v>0.6476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.7996</v>
+        <v>0.7988</v>
       </c>
       <c r="B5" s="0">
-        <v>0.6122</v>
+        <v>0.6098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6985</v>
+        <v>0.6979</v>
       </c>
       <c r="B6" s="0">
-        <v>0.595</v>
+        <v>0.5937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5992</v>
+        <v>0.5983</v>
       </c>
       <c r="B7" s="0">
-        <v>0.5595</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4973</v>
+        <v>0.498</v>
       </c>
       <c r="B8" s="0">
-        <v>0.5584</v>
+        <v>0.5571</v>
       </c>
     </row>
     <row r="9">
@@ -7163,87 +14301,87 @@
         <v>0.3989</v>
       </c>
       <c r="B9" s="0">
-        <v>0.5366</v>
+        <v>0.5341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2987</v>
+        <v>0.2994</v>
       </c>
       <c r="B10" s="0">
-        <v>0.5125</v>
+        <v>0.5123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.249</v>
+        <v>0.2494</v>
       </c>
       <c r="B11" s="0">
-        <v>0.4878</v>
+        <v>0.4866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1994</v>
+        <v>0.1998</v>
       </c>
       <c r="B12" s="0">
-        <v>0.4769</v>
+        <v>0.4734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1495</v>
+        <v>0.1501</v>
       </c>
       <c r="B13" s="0">
-        <v>0.4087</v>
+        <v>0.4063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0989</v>
+        <v>0.1005</v>
       </c>
       <c r="B14" s="0">
-        <v>0.3749</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0502</v>
+        <v>0.0514</v>
       </c>
       <c r="B15" s="0">
-        <v>0.3617</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0346</v>
+        <v>0.0347</v>
       </c>
       <c r="B16" s="0">
-        <v>0.3183</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0182</v>
+        <v>0.0188</v>
       </c>
       <c r="B17" s="0">
-        <v>0.2704</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0071</v>
+        <v>0.0096</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1994</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
       <c r="B19" s="0">
-        <v>0.1008</v>
+        <v>0.0962</v>
       </c>
     </row>
     <row r="20"/>
@@ -7276,138 +14414,138 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9524</v>
+        <v>0.9496</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9521</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9</v>
+        <v>0.8991</v>
       </c>
       <c r="B4" s="0">
-        <v>0.9161</v>
+        <v>0.9158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8016</v>
+        <v>0.8004</v>
       </c>
       <c r="B5" s="0">
-        <v>0.892</v>
+        <v>0.8894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6987</v>
+        <v>0.6982</v>
       </c>
       <c r="B6" s="0">
-        <v>0.8656</v>
+        <v>0.8631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5994</v>
+        <v>0.5982</v>
       </c>
       <c r="B7" s="0">
-        <v>0.8415</v>
+        <v>0.8379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4984</v>
+        <v>0.4983</v>
       </c>
       <c r="B8" s="0">
-        <v>0.8358</v>
+        <v>0.8298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3981</v>
+        <v>0.3983</v>
       </c>
       <c r="B9" s="0">
-        <v>0.7888</v>
+        <v>0.7886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2988</v>
+        <v>0.2987</v>
       </c>
       <c r="B10" s="0">
-        <v>0.7624</v>
+        <v>0.7633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2483</v>
+        <v>0.2492</v>
       </c>
       <c r="B11" s="0">
-        <v>0.7515</v>
+        <v>0.7513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1995</v>
+        <v>0.2001</v>
       </c>
       <c r="B12" s="0">
-        <v>0.7223</v>
+        <v>0.7198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1498</v>
+        <v>0.1505</v>
       </c>
       <c r="B13" s="0">
-        <v>0.6908</v>
+        <v>0.6894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0991</v>
+        <v>0.1</v>
       </c>
       <c r="B14" s="0">
-        <v>0.657</v>
+        <v>0.6533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0738</v>
+        <v>0.0747</v>
       </c>
       <c r="B15" s="0">
-        <v>0.6274</v>
+        <v>0.6238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0493</v>
+        <v>0.0498</v>
       </c>
       <c r="B16" s="0">
-        <v>0.591</v>
+        <v>0.5897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0347</v>
+        <v>0.034</v>
       </c>
       <c r="B17" s="0">
-        <v>0.5545</v>
+        <v>0.5532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0182</v>
+        <v>0.0194</v>
       </c>
       <c r="B18" s="0">
-        <v>0.4974</v>
+        <v>0.4938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.008</v>
+        <v>0.0084</v>
       </c>
       <c r="B19" s="0">
-        <v>0.431</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="20"/>
@@ -7440,146 +14578,146 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9972</v>
+        <v>0.0101</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0938</v>
+        <v>0.3896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9553</v>
+        <v>0.0206</v>
       </c>
       <c r="B4" s="0">
-        <v>1.0048</v>
+        <v>0.4548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9001</v>
+        <v>0.0347</v>
       </c>
       <c r="B5" s="0">
-        <v>0.9459</v>
+        <v>0.4924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7999</v>
+        <v>0.0497</v>
       </c>
       <c r="B6" s="0">
-        <v>0.9126</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6997</v>
+        <v>0.0754</v>
       </c>
       <c r="B7" s="0">
-        <v>0.8817</v>
+        <v>0.5481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5986</v>
+        <v>0.1003</v>
       </c>
       <c r="B8" s="0">
-        <v>0.8691</v>
+        <v>0.6052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4982</v>
+        <v>0.1504</v>
       </c>
       <c r="B9" s="0">
-        <v>0.7968</v>
+        <v>0.6493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4007</v>
+        <v>0.1999</v>
       </c>
       <c r="B10" s="0">
-        <v>0.7613</v>
+        <v>0.6797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2987</v>
+        <v>0.2495</v>
       </c>
       <c r="B11" s="0">
-        <v>0.7303</v>
+        <v>0.7135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.249</v>
+        <v>0.2986</v>
       </c>
       <c r="B12" s="0">
-        <v>0.7149</v>
+        <v>0.7301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2002</v>
+        <v>0.4004</v>
       </c>
       <c r="B13" s="0">
-        <v>0.6833</v>
+        <v>0.7633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1496</v>
+        <v>0.4982</v>
       </c>
       <c r="B14" s="0">
-        <v>0.6518</v>
+        <v>0.7977</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1007</v>
+        <v>0.5983</v>
       </c>
       <c r="B15" s="0">
-        <v>0.6088</v>
+        <v>0.8699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0743</v>
+        <v>0.6983</v>
       </c>
       <c r="B16" s="0">
-        <v>0.5495</v>
+        <v>0.8814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.049</v>
+        <v>0.7987</v>
       </c>
       <c r="B17" s="0">
-        <v>0.5314</v>
+        <v>0.9123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0344</v>
+        <v>0.8996</v>
       </c>
       <c r="B18" s="0">
-        <v>0.4926</v>
+        <v>0.9421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0199</v>
+        <v>0.9529</v>
       </c>
       <c r="B19" s="0">
-        <v>0.4561</v>
+        <v>1.0034</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0088</v>
+        <v>0.995</v>
       </c>
       <c r="B20" s="0">
-        <v>0.3943</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="21"/>
@@ -7612,130 +14750,130 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9995</v>
+        <v>0.0189</v>
       </c>
       <c r="B3" s="0">
-        <v>1.2268</v>
+        <v>0.7815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9551</v>
+        <v>0.0343</v>
       </c>
       <c r="B4" s="0">
-        <v>1.1631</v>
+        <v>0.8455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9009</v>
+        <v>0.0493</v>
       </c>
       <c r="B5" s="0">
-        <v>1.1408</v>
+        <v>0.8785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8007</v>
+        <v>0.0998</v>
       </c>
       <c r="B6" s="0">
-        <v>1.119</v>
+        <v>0.9112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6987</v>
+        <v>0.1494</v>
       </c>
       <c r="B7" s="0">
-        <v>1.1018</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5986</v>
+        <v>0.1995</v>
       </c>
       <c r="B8" s="0">
-        <v>1.08</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4985</v>
+        <v>0.2486</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0766</v>
+        <v>1.0252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3993</v>
+        <v>0.2991</v>
       </c>
       <c r="B10" s="0">
-        <v>1.0708</v>
+        <v>1.051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2991</v>
+        <v>0.3982</v>
       </c>
       <c r="B11" s="0">
-        <v>1.0513</v>
+        <v>1.0682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2494</v>
+        <v>0.4981</v>
       </c>
       <c r="B12" s="0">
-        <v>1.0267</v>
+        <v>1.0751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2006</v>
+        <v>0.598</v>
       </c>
       <c r="B13" s="0">
-        <v>1.002</v>
+        <v>1.0774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1499</v>
+        <v>0.6971</v>
       </c>
       <c r="B14" s="0">
-        <v>0.959</v>
+        <v>1.0992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1001</v>
+        <v>0.7993</v>
       </c>
       <c r="B15" s="0">
-        <v>0.9115</v>
+        <v>1.1164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0495</v>
+        <v>0.8988</v>
       </c>
       <c r="B16" s="0">
-        <v>0.8799</v>
+        <v>1.137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.035</v>
+        <v>0.9524</v>
       </c>
       <c r="B17" s="0">
-        <v>0.8503</v>
+        <v>1.1616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0194</v>
+        <v>0.9981</v>
       </c>
       <c r="B18" s="0">
-        <v>0.7863</v>
+        <v>1.2252</v>
       </c>
     </row>
     <row r="19"/>
@@ -7768,154 +14906,154 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9881</v>
+        <v>0.0143</v>
       </c>
       <c r="B3" s="0">
-        <v>1.5319</v>
+        <v>0.9019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9023</v>
+        <v>0.0238</v>
       </c>
       <c r="B4" s="0">
-        <v>1.503</v>
+        <v>0.9338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.804</v>
+        <v>0.0334</v>
       </c>
       <c r="B5" s="0">
-        <v>1.4789</v>
+        <v>0.9991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6984</v>
+        <v>0.0488</v>
       </c>
       <c r="B6" s="0">
-        <v>1.4641</v>
+        <v>1.0378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5992</v>
+        <v>0.0588</v>
       </c>
       <c r="B7" s="0">
-        <v>1.4675</v>
+        <v>1.0618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.498</v>
+        <v>0.0688</v>
       </c>
       <c r="B8" s="0">
-        <v>1.4228</v>
+        <v>1.1007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3987</v>
+        <v>0.0784</v>
       </c>
       <c r="B9" s="0">
-        <v>1.3896</v>
+        <v>1.1384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2994</v>
+        <v>0.0992</v>
       </c>
       <c r="B10" s="0">
-        <v>1.3517</v>
+        <v>1.1863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2488</v>
+        <v>0.1492</v>
       </c>
       <c r="B11" s="0">
-        <v>1.334</v>
+        <v>1.2155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.199</v>
+        <v>0.1985</v>
       </c>
       <c r="B12" s="0">
-        <v>1.2726</v>
+        <v>1.2711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1492</v>
+        <v>0.2481</v>
       </c>
       <c r="B13" s="0">
-        <v>1.2182</v>
+        <v>1.3324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0994</v>
+        <v>0.2977</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1866</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0794</v>
+        <v>0.3972</v>
       </c>
       <c r="B15" s="0">
-        <v>1.141</v>
+        <v>1.3857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0703</v>
+        <v>0.4973</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1021</v>
+        <v>1.4178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0593</v>
+        <v>0.5968</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0633</v>
+        <v>1.4648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0493</v>
+        <v>0.6967</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0382</v>
+        <v>1.4625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0347</v>
+        <v>0.8012</v>
       </c>
       <c r="B19" s="0">
-        <v>0.9993</v>
+        <v>1.4762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0236</v>
+        <v>0.8985</v>
       </c>
       <c r="B20" s="0">
-        <v>0.9353</v>
+        <v>1.5003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0145</v>
+        <v>0.9859</v>
       </c>
       <c r="B21" s="0">
-        <v>0.9056</v>
+        <v>1.5303</v>
       </c>
     </row>
     <row r="22"/>
@@ -7923,4 +15061,332 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9884</v>
+      </c>
+      <c r="B3" s="0">
+        <v>12.6372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9007</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12.3413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8016</v>
+      </c>
+      <c r="B5" s="0">
+        <v>12.2447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7008</v>
+      </c>
+      <c r="B6" s="0">
+        <v>12.1383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5992</v>
+      </c>
+      <c r="B7" s="0">
+        <v>12.0418</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5009</v>
+      </c>
+      <c r="B8" s="0">
+        <v>11.9452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.401</v>
+      </c>
+      <c r="B9" s="0">
+        <v>11.8189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.301</v>
+      </c>
+      <c r="B10" s="0">
+        <v>11.6726</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2023</v>
+      </c>
+      <c r="B11" s="0">
+        <v>11.4964</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1523</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11.3885</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1019</v>
+      </c>
+      <c r="B13" s="0">
+        <v>11.2308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0816</v>
+      </c>
+      <c r="B14" s="0">
+        <v>11.1319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0625</v>
+      </c>
+      <c r="B15" s="0">
+        <v>11.023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0468</v>
+      </c>
+      <c r="B16" s="0">
+        <v>10.9439</v>
+      </c>
+    </row>
+    <row r="17"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9857</v>
+      </c>
+      <c r="B3" s="0">
+        <v>14.9357</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B4" s="0">
+        <v>14.4209</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.7996</v>
+      </c>
+      <c r="B5" s="0">
+        <v>14.195</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7014</v>
+      </c>
+      <c r="B6" s="0">
+        <v>14.0388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.601</v>
+      </c>
+      <c r="B7" s="0">
+        <v>13.8826</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B8" s="0">
+        <v>13.7065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4002</v>
+      </c>
+      <c r="B9" s="0">
+        <v>13.5204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3015</v>
+      </c>
+      <c r="B10" s="0">
+        <v>13.3741</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2503</v>
+      </c>
+      <c r="B11" s="0">
+        <v>13.2662</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2015</v>
+      </c>
+      <c r="B12" s="0">
+        <v>13.1482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1503</v>
+      </c>
+      <c r="B13" s="0">
+        <v>12.9905</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1007</v>
+      </c>
+      <c r="B14" s="0">
+        <v>12.7433</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0816</v>
+      </c>
+      <c r="B15" s="0">
+        <v>12.6145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0705</v>
+      </c>
+      <c r="B16" s="0">
+        <v>12.5253</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0604</v>
+      </c>
+      <c r="B17" s="0">
+        <v>12.436</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0502</v>
+      </c>
+      <c r="B18" s="0">
+        <v>12.307</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0365</v>
+      </c>
+      <c r="B19" s="0">
+        <v>12.0785</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0263</v>
+      </c>
+      <c r="B20" s="0">
+        <v>11.8201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.016</v>
+      </c>
+      <c r="B21" s="0">
+        <v>11.4423</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0109</v>
+      </c>
+      <c r="B22" s="0">
+        <v>11.1042</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>